--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>552973.4245514718</v>
+        <v>549512.5863515497</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707514</v>
+        <v>11851279.69682649</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901943</v>
+        <v>2519657.038588232</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6961389.459721547</v>
+        <v>7870730.57695248</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +667,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>92.38090300811169</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>58.67748875058511</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,16 +825,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>226.587886463794</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>15.21029030982582</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>48.10118767156928</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>292.7242823691476</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1063,16 +1065,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>181.2635869532361</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1142,7 +1144,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>322.569473420868</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>58.67748875058492</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1382,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>29.98757571762868</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>58.67748875058538</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>98.15366458399242</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1607,13 +1609,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>112.9037085228546</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1622,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>115.1055716303386</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1847,7 +1849,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1856,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>76.45328601277664</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2002,16 +2004,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>97.38486373348341</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>173.2846230762511</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2251,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>146.1447286778223</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>30.92694568716851</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2485,16 +2487,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>164.7047943182449</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2731,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>84.452814744562</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2959,16 +2961,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>12.82988994717986</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
         <v>218.7163152458132</v>
@@ -3190,7 +3192,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>120.642977804837</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>133.9073134702963</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3484,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>124.4294523839912</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>106.858786719141</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3901,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3992,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>115.6928798598505</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4043,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4138,16 +4140,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>58.33552926585337</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>988.0056192934842</v>
+        <v>1805.062888170846</v>
       </c>
       <c r="C2" t="n">
-        <v>561.1048893067843</v>
+        <v>1378.162158184146</v>
       </c>
       <c r="D2" t="n">
-        <v>137.8122684917846</v>
+        <v>954.8695373691464</v>
       </c>
       <c r="E2" t="n">
-        <v>44.49822504924753</v>
+        <v>528.892597517004</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924753</v>
+        <v>103.7684157064042</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>103.7684157064042</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L2" t="n">
-        <v>44.49822504924753</v>
+        <v>455.358312627159</v>
       </c>
       <c r="M2" t="n">
-        <v>549.9383681074144</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091853</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X2" t="n">
-        <v>1813.191253630124</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y2" t="n">
-        <v>1407.853983585014</v>
+        <v>2224.911252462376</v>
       </c>
     </row>
     <row r="3">
@@ -4395,40 +4397,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L3" t="n">
-        <v>751.8547856608809</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M3" t="n">
-        <v>751.8547856608809</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N3" t="n">
-        <v>1302.520320645319</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4462,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>479.5561293032849</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>307.5835661822009</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924759</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743914</v>
@@ -4510,28 +4512,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T4" t="n">
-        <v>2054.776204981511</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U4" t="n">
-        <v>2054.776204981511</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V4" t="n">
-        <v>1773.064737589539</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W4" t="n">
-        <v>1773.064737589539</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>669.7220980153506</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>767.4907853858125</v>
+        <v>471.3989550359474</v>
       </c>
       <c r="C5" t="n">
-        <v>767.4907853858125</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D5" t="n">
-        <v>767.4907853858125</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E5" t="n">
-        <v>767.4907853858125</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N5" t="n">
-        <v>1006.023847611597</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="V5" t="n">
-        <v>1592.676419722452</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="W5" t="n">
-        <v>1592.676419722452</v>
+        <v>1708.30458820484</v>
       </c>
       <c r="X5" t="n">
-        <v>1592.676419722452</v>
+        <v>1296.584589372587</v>
       </c>
       <c r="Y5" t="n">
-        <v>1187.339149677342</v>
+        <v>891.2473193274775</v>
       </c>
     </row>
     <row r="6">
@@ -4632,40 +4634,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K6" t="n">
-        <v>669.8354755761777</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L6" t="n">
-        <v>1220.501010560616</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M6" t="n">
-        <v>1220.501010560616</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1771.166545545054</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>545.9957668907073</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>374.0232037696233</v>
+        <v>955.7067844524003</v>
       </c>
       <c r="D7" t="n">
-        <v>210.706430896394</v>
+        <v>792.390011579171</v>
       </c>
       <c r="E7" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320245</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4753,22 +4755,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>2041.81672018638</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1761.632271686684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1479.920804294713</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1205.068400467226</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>962.5045039130309</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>736.161735602773</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1646.496266633259</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C8" t="n">
-        <v>1219.595536646559</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D8" t="n">
-        <v>796.3029158315596</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E8" t="n">
-        <v>370.3259759794172</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K8" t="n">
-        <v>572.914647509062</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L8" t="n">
-        <v>572.914647509062</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V8" t="n">
-        <v>1646.496266633259</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W8" t="n">
-        <v>1646.496266633259</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X8" t="n">
-        <v>1646.496266633259</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y8" t="n">
-        <v>1646.496266633259</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="9">
@@ -4869,31 +4871,31 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L9" t="n">
-        <v>751.8547856608809</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608809</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
         <v>1302.520320645319</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462377</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1745.792697513689</v>
+        <v>2199.633349028036</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.891967526989</v>
+        <v>1772.732619041336</v>
       </c>
       <c r="D11" t="n">
-        <v>895.5993467119897</v>
+        <v>1349.439998226337</v>
       </c>
       <c r="E11" t="n">
-        <v>469.6224068598473</v>
+        <v>923.4630583741941</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924753</v>
+        <v>498.3388765635943</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924753</v>
+        <v>93.99981415304291</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924753</v>
+        <v>93.99981415304291</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924753</v>
+        <v>93.99981415304291</v>
       </c>
       <c r="J11" t="n">
-        <v>407.101683866143</v>
+        <v>229.1755420007979</v>
       </c>
       <c r="K11" t="n">
-        <v>667.4947029893171</v>
+        <v>944.683849976297</v>
       </c>
       <c r="L11" t="n">
-        <v>667.4947029893171</v>
+        <v>1874.308897595574</v>
       </c>
       <c r="M11" t="n">
-        <v>1218.160237973755</v>
+        <v>2878.594999014632</v>
       </c>
       <c r="N11" t="n">
-        <v>1218.160237973755</v>
+        <v>3854.846057501333</v>
       </c>
       <c r="O11" t="n">
-        <v>1218.160237973755</v>
+        <v>4699.990707652145</v>
       </c>
       <c r="P11" t="n">
-        <v>1768.825772958194</v>
+        <v>4699.990707652145</v>
       </c>
       <c r="Q11" t="n">
-        <v>2224.911252462377</v>
+        <v>4699.990707652145</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462377</v>
+        <v>4699.990707652145</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462377</v>
+        <v>4669.700227129288</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462377</v>
+        <v>4448.77465617392</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462377</v>
+        <v>4190.419746770332</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462377</v>
+        <v>3832.930331896582</v>
       </c>
       <c r="W11" t="n">
-        <v>2224.911252462377</v>
+        <v>3436.538982196929</v>
       </c>
       <c r="X11" t="n">
-        <v>2165.64106180522</v>
+        <v>3024.818983364676</v>
       </c>
       <c r="Y11" t="n">
-        <v>2165.64106180522</v>
+        <v>2619.481713319567</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>611.6217160807028</v>
+        <v>661.1233051844981</v>
       </c>
       <c r="C12" t="n">
-        <v>494.1158125982075</v>
+        <v>543.6174017020029</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134926</v>
+        <v>439.777443217288</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864298</v>
+        <v>335.0755094902252</v>
       </c>
       <c r="F12" t="n">
-        <v>191.928090069334</v>
+        <v>241.4296791731293</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693795</v>
+        <v>147.3759073907333</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924753</v>
+        <v>93.99981415304291</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924753</v>
+        <v>93.99981415304291</v>
       </c>
       <c r="J12" t="n">
-        <v>316.1957143288386</v>
+        <v>93.99981415304291</v>
       </c>
       <c r="K12" t="n">
-        <v>838.3748437825398</v>
+        <v>93.99981415304291</v>
       </c>
       <c r="L12" t="n">
-        <v>1389.040378766978</v>
+        <v>930.7986222359491</v>
       </c>
       <c r="M12" t="n">
-        <v>1389.040378766978</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="N12" t="n">
-        <v>1389.040378766978</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="O12" t="n">
-        <v>1389.040378766978</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="P12" t="n">
-        <v>1389.040378766978</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="Q12" t="n">
-        <v>1853.185855629757</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="R12" t="n">
-        <v>1853.185855629757</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="S12" t="n">
-        <v>1771.861608191012</v>
+        <v>1821.363197294807</v>
       </c>
       <c r="T12" t="n">
-        <v>1629.98167248869</v>
+        <v>1679.483261592485</v>
       </c>
       <c r="U12" t="n">
-        <v>1445.213476408327</v>
+        <v>1494.715065512122</v>
       </c>
       <c r="V12" t="n">
-        <v>1240.240337547593</v>
+        <v>1289.741926651388</v>
       </c>
       <c r="W12" t="n">
-        <v>1043.71896038081</v>
+        <v>1093.220549484605</v>
       </c>
       <c r="X12" t="n">
-        <v>880.2416141474731</v>
+        <v>929.7432032512685</v>
       </c>
       <c r="Y12" t="n">
-        <v>740.5487255007655</v>
+        <v>790.0503146045609</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>315.615903911738</v>
+        <v>1177.18093667728</v>
       </c>
       <c r="C13" t="n">
-        <v>143.643340790654</v>
+        <v>1005.208373556196</v>
       </c>
       <c r="D13" t="n">
-        <v>44.49822504924753</v>
+        <v>841.8916006829664</v>
       </c>
       <c r="E13" t="n">
-        <v>44.49822504924753</v>
+        <v>675.68339483582</v>
       </c>
       <c r="F13" t="n">
-        <v>44.49822504924753</v>
+        <v>503.8216206103804</v>
       </c>
       <c r="G13" t="n">
-        <v>44.49822504924753</v>
+        <v>337.5646509046126</v>
       </c>
       <c r="H13" t="n">
-        <v>44.49822504924753</v>
+        <v>193.7683824127669</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924753</v>
+        <v>93.99981415304291</v>
       </c>
       <c r="J13" t="n">
-        <v>101.9895532734055</v>
+        <v>151.4911423772009</v>
       </c>
       <c r="K13" t="n">
-        <v>328.5171544792427</v>
+        <v>378.0187435830381</v>
       </c>
       <c r="L13" t="n">
-        <v>683.2064757736634</v>
+        <v>732.7080648774589</v>
       </c>
       <c r="M13" t="n">
-        <v>1074.392270743914</v>
+        <v>1123.89385984771</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.88378161995</v>
+        <v>1501.385370723746</v>
       </c>
       <c r="O13" t="n">
-        <v>1807.311910299713</v>
+        <v>1856.813499403509</v>
       </c>
       <c r="P13" t="n">
-        <v>2097.911122221614</v>
+        <v>2147.412711325409</v>
       </c>
       <c r="Q13" t="n">
-        <v>2224.911252462376</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="R13" t="n">
-        <v>2224.911252462376</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="S13" t="n">
-        <v>2054.776204981511</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="T13" t="n">
-        <v>1811.43685720741</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="U13" t="n">
-        <v>1531.252408707715</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="V13" t="n">
-        <v>1249.540941315744</v>
+        <v>2111.105974081285</v>
       </c>
       <c r="W13" t="n">
-        <v>974.6885374882565</v>
+        <v>1836.253570253798</v>
       </c>
       <c r="X13" t="n">
-        <v>732.1246409340616</v>
+        <v>1593.689673699603</v>
       </c>
       <c r="Y13" t="n">
-        <v>505.7818726238037</v>
+        <v>1367.346905389345</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>988.0056192934842</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>873.9614692703988</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>873.9614692703988</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>873.9614692703988</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>448.8372874597989</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924753</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>407.101683866143</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>407.101683866143</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L14" t="n">
-        <v>407.101683866143</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M14" t="n">
-        <v>667.4947029893171</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N14" t="n">
-        <v>667.4947029893171</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O14" t="n">
-        <v>1218.160237973755</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P14" t="n">
-        <v>1768.825772958194</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462377</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462377</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462377</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462377</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462377</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.911252462377</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>1813.191253630124</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1407.853983585014</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>51.94486801115937</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>323.6423572907505</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>323.6423572907505</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>751.8547856608809</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.520320645319</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N15" t="n">
-        <v>1302.520320645319</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O15" t="n">
-        <v>1853.185855629757</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P15" t="n">
-        <v>1853.185855629757</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127.679347573484</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524004</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D16" t="n">
-        <v>792.3900115791711</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2177.872639149549</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.872639149549</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>2177.872639149549</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U16" t="n">
-        <v>2177.872639149549</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V16" t="n">
-        <v>2061.60438497749</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.751981150003</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X16" t="n">
-        <v>1544.188084595808</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y16" t="n">
-        <v>1317.84531628555</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1322.50007669869</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>895.5993467119897</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>895.5993467119897</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>469.6224068598473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924753</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924753</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924753</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>595.1637600336857</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336857</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>1145.829295018124</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>1145.829295018124</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>1218.160237973755</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P17" t="n">
-        <v>1768.825772958194</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462377</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462377</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462377</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462377</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.685711035329</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>1742.34844099022</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>44.49822504924753</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>595.1637600336857</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1145.829295018124</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1389.040378766978</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1127.679347573485</v>
+        <v>776.7012749360533</v>
       </c>
       <c r="C19" t="n">
-        <v>955.7067844524009</v>
+        <v>776.7012749360533</v>
       </c>
       <c r="D19" t="n">
-        <v>792.3900115791716</v>
+        <v>776.7012749360533</v>
       </c>
       <c r="E19" t="n">
-        <v>626.1818057320252</v>
+        <v>610.4930690889069</v>
       </c>
       <c r="F19" t="n">
-        <v>454.3200315065856</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
-        <v>288.0630618008178</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089722</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924814</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734062</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792433</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736641</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743915</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.883781619951</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299714</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221615</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462377</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2224.911252462377</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2054.776204981511</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>2054.776204981511</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U19" t="n">
-        <v>1774.591756481816</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V19" t="n">
-        <v>1492.880289089845</v>
+        <v>1710.626312340059</v>
       </c>
       <c r="W19" t="n">
-        <v>1492.880289089845</v>
+        <v>1435.773908512572</v>
       </c>
       <c r="X19" t="n">
-        <v>1492.880289089845</v>
+        <v>1193.210011958377</v>
       </c>
       <c r="Y19" t="n">
-        <v>1317.845316285551</v>
+        <v>966.867243648119</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>188.2350251358961</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>903.7433331113951</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1833.368380730672</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.65448214973</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636431</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5792,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1013.511272808982</v>
+        <v>3899.499165495449</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>3727.526602374365</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>3564.209829501136</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>3398.00162365399</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>3226.13984942855</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S22" t="n">
-        <v>2251.476401741009</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T22" t="n">
-        <v>2008.137053966909</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="U22" t="n">
-        <v>1727.952605467213</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="V22" t="n">
-        <v>1446.241138075242</v>
+        <v>4833.424202899455</v>
       </c>
       <c r="W22" t="n">
-        <v>1446.241138075242</v>
+        <v>4558.571799071968</v>
       </c>
       <c r="X22" t="n">
-        <v>1203.677241521047</v>
+        <v>4316.007902517773</v>
       </c>
       <c r="Y22" t="n">
-        <v>1203.677241521047</v>
+        <v>4089.665134207515</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6072,19 +6074,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1194.79262694784</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723635</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.43821322394</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V25" t="n">
-        <v>4374.43821322394</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W25" t="n">
-        <v>4208.069734114601</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X25" t="n">
-        <v>4208.069734114601</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2856.963518260713</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3833.214576747414</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6312,13 +6314,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6409,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V28" t="n">
-        <v>2119.408873334071</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>188.235025135897</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>903.7433331113961</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1833.368380730673</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2837.654482149731</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3813.905540636432</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4659.050190787244</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6543,19 +6545,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.7597400424195</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>444.7871769213355</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D31" t="n">
-        <v>281.4704040481062</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E31" t="n">
-        <v>115.2621982009597</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>1832.396244838396</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V31" t="n">
-        <v>1550.684777446425</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W31" t="n">
-        <v>1275.832373618938</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X31" t="n">
-        <v>1033.268477064743</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.9257087544852</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
         <v>435.0679631883225</v>
@@ -6698,31 +6700,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>456.2068044646694</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1171.715112440168</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2101.340160059445</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
         <v>5010.768376164567</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742373</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259878</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775163</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.523735048101</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731005</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948609</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710919</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710919</v>
+        <v>3313.89468267283</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710919</v>
+        <v>3585.592171952421</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710919</v>
+        <v>4176.07709852076</v>
       </c>
       <c r="L33" t="n">
-        <v>3306.448039710919</v>
+        <v>4176.07709852076</v>
       </c>
       <c r="M33" t="n">
-        <v>4025.820723818557</v>
+        <v>4176.07709852076</v>
       </c>
       <c r="N33" t="n">
-        <v>5115.135670291427</v>
+        <v>4176.07709852076</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291427</v>
+        <v>4398.937953252928</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852682</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.93148715036</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069997</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209264</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.668775042481</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809144</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162436</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="34">
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D34" t="n">
         <v>102.3027134058285</v>
@@ -6856,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2176.752350469914</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1933.413002695814</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1653.228554196118</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1371.517086804147</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1096.66468297666</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6938,34 +6940,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>195.4640539534684</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7017,22 +7019,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>105.4776804749704</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>105.4776804749704</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M36" t="n">
-        <v>105.4776804749704</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N36" t="n">
-        <v>1194.79262694784</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1194.79262694784</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4017.903765402536</v>
+        <v>985.454412532011</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>985.454412532011</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>4945.000622810562</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>4701.661275036462</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>4421.476826536767</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>4139.765359144795</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>4139.765359144795</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>4139.765359144795</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y37" t="n">
-        <v>4139.765359144795</v>
+        <v>985.454412532011</v>
       </c>
     </row>
     <row r="38">
@@ -7172,49 +7174,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2398.817321261059</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3375.06837974776</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>4220.213029898572</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7260,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7309,16 +7311,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
         <v>345.8675501573982</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7363,16 +7365,16 @@
         <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>2002.531292319261</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>2002.531292319261</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W40" t="n">
-        <v>1727.678888491774</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y40" t="n">
         <v>1375.649804642131</v>
@@ -7400,7 +7402,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7409,49 +7411,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409525</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7488,28 +7490,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N42" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>941.9189991784958</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
         <v>102.3027134058285</v>
@@ -7567,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7594,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.555503974472</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1875.844036582501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.084967890562</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1299.938409122541</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1299.938409122541</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1299.938409122541</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>873.9614692703988</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>448.8372874597989</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G44" t="n">
-        <v>44.49822504924753</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>572.914647509062</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L44" t="n">
-        <v>1123.5801824935</v>
+        <v>1125.089101572744</v>
       </c>
       <c r="M44" t="n">
-        <v>1674.245717477938</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N44" t="n">
-        <v>1674.245717477938</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O44" t="n">
-        <v>2224.911252462377</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P44" t="n">
-        <v>2224.911252462377</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>2224.911252462377</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.911252462377</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.911252462377</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2108.049757654447</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>1711.658407954794</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>1299.938409122541</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1299.938409122541</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>316.1957143288386</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>316.1957143288386</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>316.1957143288386</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>866.8612493132769</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N45" t="n">
-        <v>1302.520320645319</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>438.7123380797763</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C46" t="n">
-        <v>266.7397749586924</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D46" t="n">
-        <v>103.4230020854631</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>103.4230020854631</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>103.4230020854631</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2177.872639149549</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2177.872639149549</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T46" t="n">
-        <v>1934.533291375449</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U46" t="n">
-        <v>1654.348842875753</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V46" t="n">
-        <v>1372.637375483782</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W46" t="n">
-        <v>1097.784971656295</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X46" t="n">
-        <v>855.2210751020999</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y46" t="n">
-        <v>628.878306791842</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
   </sheetData>
@@ -7982,22 +7984,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>453.3222319052608</v>
       </c>
       <c r="M2" t="n">
-        <v>547.9768619480851</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8055,22 +8057,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L3" t="n">
-        <v>462.5747547263935</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>98.52275580777507</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8079,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>452.4414523720698</v>
       </c>
       <c r="N5" t="n">
-        <v>86.02369229001789</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8292,31 +8294,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>379.6111138811506</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>179.6167914733354</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,19 +8455,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>569.51856287543</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>452.289812307084</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8474,7 +8476,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,22 +8534,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L9" t="n">
-        <v>180.7888499740228</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>181.3705437721217</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>165.9610987257431</v>
       </c>
       <c r="K11" t="n">
-        <v>298.7878524343791</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8766,16 +8768,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>549.852899948183</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>578.7428998298237</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8787,7 +8789,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>300.4545145390017</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716183</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>593.8031749258255</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>455.0528931487048</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3245936279221</v>
+        <v>657.7881306933709</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>591.9924139104035</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>110.4525178970659</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>593.8031749258255</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>236.8553498857477</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,19 +9251,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291358</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>267.4386025673074</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>116.2202743644426</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,22 +9722,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>281.3706244104145</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>279.576101048122</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9881,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>791.8999401147988</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,16 +9962,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O27" t="n">
-        <v>60.04398625350153</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.2202743644436</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10191,22 +10193,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>386.8988393430016</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10358,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>604.3877546542399</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>248.2838641991599</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10665,25 +10667,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>25.60627127691096</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>784.1890535317962</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>362.1014486857561</v>
+        <v>585.0680802286654</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11075,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>466.324307620685</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>217.3512730059673</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,25 +11299,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>569.51856287543</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>594.539855548217</v>
+        <v>348.6939416158719</v>
       </c>
       <c r="M44" t="n">
-        <v>593.6590760150259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>593.6187724716183</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11373,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,13 +11384,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>579.3245936279221</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>461.4026962257055</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O45" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -22553,16 +22555,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>329.3362674455093</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>236.2122059901204</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22610,10 +22612,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22711,16 +22713,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13.55037112485891</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>208.8690503173296</v>
       </c>
     </row>
     <row r="5">
@@ -22784,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -22793,13 +22795,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22832,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>305.8133330534437</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>99.70315383350896</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22951,16 +22953,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22993,13 +22995,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>59.64236734312294</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23030,7 +23032,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>98.30346657162579</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -23072,13 +23074,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -23087,7 +23089,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>342.6064085940736</v>
       </c>
     </row>
     <row r="9">
@@ -23182,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.9059542963599</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>73.33604546796232</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>348.9253100933448</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>63.52994056050457</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>309.7280141639783</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -23710,7 +23712,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>163.7887810877128</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23735,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>331.1495128311536</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>72.75829274970177</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.79471755090427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>18.44967133088784</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>137.506751318888</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>107.3990854709672</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24651,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>155.6854428440909</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>157.3132665360053</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>63.52994056050434</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.62133122010796</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>27.77629167420068</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -25603,19 +25605,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>115.7088052046617</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
     </row>
     <row r="41">
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25834,13 +25836,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>238.2216408651625</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>111.8076272173316</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>106.2588707428568</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457717.0243933313</v>
+        <v>457717.0243933312</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457717.0243933313</v>
+        <v>715957.147037478</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457717.0243933313</v>
+        <v>759271.7508746496</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457717.0243933313</v>
+        <v>759271.7508746496</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>759271.7508746496</v>
+        <v>759271.7508746497</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>759271.7508746497</v>
+        <v>759271.7508746496</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>759271.7508746496</v>
+        <v>759271.7508746497</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>759271.7508746497</v>
+        <v>759271.7508746496</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759271.7508746497</v>
+        <v>759271.7508746496</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457717.0243933313</v>
+        <v>759271.7508746496</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26319,19 @@
         <v>152470.9723568845</v>
       </c>
       <c r="D2" t="n">
-        <v>152470.9723568845</v>
+        <v>152470.9723568844</v>
       </c>
       <c r="E2" t="n">
-        <v>152470.9723568845</v>
+        <v>238486.3295284521</v>
       </c>
       <c r="F2" t="n">
-        <v>152470.9723568845</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="G2" t="n">
-        <v>152470.9723568845</v>
+        <v>252913.6814118514</v>
       </c>
       <c r="H2" t="n">
-        <v>252913.6814118514</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="I2" t="n">
         <v>252913.6814118513</v>
@@ -26347,13 +26349,13 @@
         <v>252913.6814118513</v>
       </c>
       <c r="N2" t="n">
+        <v>252913.6814118513</v>
+      </c>
+      <c r="O2" t="n">
+        <v>252913.6814118513</v>
+      </c>
+      <c r="P2" t="n">
         <v>252913.6814118514</v>
-      </c>
-      <c r="O2" t="n">
-        <v>252913.6814118514</v>
-      </c>
-      <c r="P2" t="n">
-        <v>152470.9723568845</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>184751.0683929127</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>29737.45639129569</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875096</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>154199.9251377778</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>25420.05256608782</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,16 +26423,16 @@
         <v>17703.77972371005</v>
       </c>
       <c r="D4" t="n">
-        <v>17703.77972371005</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="E4" t="n">
-        <v>17703.77972371005</v>
+        <v>27747.63215222807</v>
       </c>
       <c r="F4" t="n">
-        <v>17703.77972371005</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="G4" t="n">
-        <v>17703.77972371005</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="H4" t="n">
         <v>29432.2870559115</v>
@@ -26457,7 +26459,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="P4" t="n">
-        <v>17703.77972371005</v>
+        <v>29432.2870559115</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742812</v>
+        <v>71439.85875631261</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-119083.791818991</v>
+        <v>-119083.7918189909</v>
       </c>
       <c r="C6" t="n">
-        <v>67320.94159574629</v>
+        <v>67320.94159574636</v>
       </c>
       <c r="D6" t="n">
-        <v>67320.94159574632</v>
+        <v>67320.94159574631</v>
       </c>
       <c r="E6" t="n">
-        <v>100948.5415957463</v>
+        <v>-45452.22977300131</v>
       </c>
       <c r="F6" t="n">
-        <v>100948.5415957464</v>
+        <v>115993.8757762145</v>
       </c>
       <c r="G6" t="n">
-        <v>100948.5415957464</v>
+        <v>145731.3321675102</v>
       </c>
       <c r="H6" t="n">
-        <v>-49220.80781999943</v>
+        <v>145731.3321675101</v>
       </c>
       <c r="I6" t="n">
         <v>145731.3321675102</v>
       </c>
       <c r="J6" t="n">
-        <v>197.6622326936194</v>
+        <v>197.6622326936631</v>
       </c>
       <c r="K6" t="n">
         <v>145731.3321675101</v>
@@ -26552,16 +26554,16 @@
         <v>145731.3321675102</v>
       </c>
       <c r="M6" t="n">
+        <v>-8468.592970267637</v>
+      </c>
+      <c r="N6" t="n">
+        <v>120311.2796014223</v>
+      </c>
+      <c r="O6" t="n">
+        <v>145731.3321675101</v>
+      </c>
+      <c r="P6" t="n">
         <v>145731.3321675102</v>
-      </c>
-      <c r="N6" t="n">
-        <v>145731.3321675102</v>
-      </c>
-      <c r="O6" t="n">
-        <v>145731.3321675102</v>
-      </c>
-      <c r="P6" t="n">
-        <v>100948.5415957463</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155941</v>
+        <v>1174.997676913036</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>618.7698637974422</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>103.7862406598204</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>618.7698637974422</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>103.7862406598204</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>618.7698637974422</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>103.7862406598204</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34702,22 +34704,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="M2" t="n">
-        <v>510.5455990486533</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L3" t="n">
-        <v>440.0596680121639</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>75.42597529544709</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34799,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="N5" t="n">
-        <v>48.74406945557187</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>357.2118800478173</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>533.7539620806207</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>415.010189472638</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35194,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L9" t="n">
-        <v>158.2737632597932</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>136.5411392401566</v>
       </c>
       <c r="K11" t="n">
-        <v>263.0232516395698</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>556.2278131155941</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>981.7058813107107</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>263.0232516395698</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155941</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>556.2278131155941</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>432.5378064344752</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>556.2278131155941</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>556.2278131155941</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>73.06155854104179</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>556.2278131155941</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>200.7306752811496</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>556.2278131155941</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>86.80031487885611</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36601,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>754.4686772153671</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O27" t="n">
-        <v>36.8720965312793</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>86.80031487885702</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>357.4788798574151</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37078,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>566.9967952982157</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>225.1119744769376</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>3.207037443577619</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>324.5260868755248</v>
+        <v>547.492718418434</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37795,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>533.7539620806207</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>556.2278131155941</v>
+        <v>310.381899183249</v>
       </c>
       <c r="M44" t="n">
-        <v>556.2278131155941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>556.2278131155941</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>556.2278131155941</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>440.0596680121639</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>549512.5863515497</v>
+        <v>547085.9938672667</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2519657.038588232</v>
+        <v>2519657.038588237</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7870730.57695248</v>
+        <v>7870730.576952479</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>152.4470126431548</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>58.67748875058511</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>98.15366458399333</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.21029030982582</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>77.02834788080531</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>292.7242823691476</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1141,19 +1141,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>207.5119610730094</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>58.67748875058492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,10 +1296,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429393</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -1347,7 +1347,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>49.30653966552013</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1375,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>50.83395439817077</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.98757571762868</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1536,19 +1536,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>97.38486373348341</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>146.1447286778223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2718,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>84.452814744562</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>104.9037564455521</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>133.9073134702963</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3489,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>106.858786719141</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>49.87597792716544</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1805.062888170846</v>
+        <v>1301.714957298641</v>
       </c>
       <c r="C2" t="n">
-        <v>1378.162158184146</v>
+        <v>874.8142273119413</v>
       </c>
       <c r="D2" t="n">
-        <v>954.8695373691464</v>
+        <v>874.8142273119413</v>
       </c>
       <c r="E2" t="n">
-        <v>528.892597517004</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F2" t="n">
-        <v>103.7684157064042</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
-        <v>103.7684157064042</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924752</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="L2" t="n">
-        <v>455.358312627159</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M2" t="n">
         <v>1006.023847611597</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596035</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580473</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462376</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462376</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.911252462376</v>
+        <v>1455.701838756373</v>
       </c>
       <c r="Y2" t="n">
-        <v>2224.911252462376</v>
+        <v>1455.701838756373</v>
       </c>
     </row>
     <row r="3">
@@ -4397,34 +4397,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336855</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="L3" t="n">
-        <v>1145.829295018124</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M3" t="n">
         <v>1220.501010560616</v>
       </c>
       <c r="N3" t="n">
-        <v>1771.166545545054</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O3" t="n">
-        <v>1771.166545545054</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P3" t="n">
         <v>1771.166545545054</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>479.5561293032849</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C4" t="n">
-        <v>307.5835661822009</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="D4" t="n">
-        <v>144.2667933089716</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="E4" t="n">
-        <v>144.2667933089716</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="F4" t="n">
-        <v>144.2667933089716</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924759</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754302</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212353</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y4" t="n">
-        <v>669.7220980153506</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>471.3989550359474</v>
+        <v>1303.486689458155</v>
       </c>
       <c r="C5" t="n">
-        <v>44.49822504924752</v>
+        <v>1225.680277457341</v>
       </c>
       <c r="D5" t="n">
-        <v>44.49822504924752</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="E5" t="n">
-        <v>44.49822504924752</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336855</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596035</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>2107.354917580473</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580473</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.985681507009</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.985681507009</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.985681507009</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1708.30458820484</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>1296.584589372587</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y5" t="n">
-        <v>891.2473193274775</v>
+        <v>1303.486689458155</v>
       </c>
     </row>
     <row r="6">
@@ -4634,40 +4634,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336855</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336855</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524003</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D7" t="n">
-        <v>792.390011579171</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320245</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4752,25 +4752,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V7" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.792697513689</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.891967526989</v>
+        <v>1435.288318945229</v>
       </c>
       <c r="D8" t="n">
-        <v>895.5993467119897</v>
+        <v>1011.99569813023</v>
       </c>
       <c r="E8" t="n">
-        <v>469.6224068598473</v>
+        <v>1011.99569813023</v>
       </c>
       <c r="F8" t="n">
-        <v>44.49822504924752</v>
+        <v>586.8715163196298</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336855</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M8" t="n">
-        <v>1696.494830002562</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N8" t="n">
-        <v>2107.354917580473</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="X8" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="Y8" t="n">
-        <v>2165.64106180522</v>
+        <v>1862.189048931929</v>
       </c>
     </row>
     <row r="9">
@@ -4871,40 +4871,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336855</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>545.9957668907073</v>
       </c>
       <c r="C10" t="n">
-        <v>96.60472747782725</v>
+        <v>374.0232037696233</v>
       </c>
       <c r="D10" t="n">
-        <v>44.49822504924752</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924814</v>
       </c>
       <c r="J10" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K10" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M10" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O10" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P10" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1761.632271686684</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1479.920804294713</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1205.068400467226</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>962.5045039130309</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>736.161735602773</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2199.633349028036</v>
+        <v>2125.556535424023</v>
       </c>
       <c r="C11" t="n">
-        <v>1772.732619041336</v>
+        <v>1698.655805437323</v>
       </c>
       <c r="D11" t="n">
-        <v>1349.439998226337</v>
+        <v>1647.308376752302</v>
       </c>
       <c r="E11" t="n">
-        <v>923.4630583741941</v>
+        <v>1221.331436900159</v>
       </c>
       <c r="F11" t="n">
-        <v>498.3388765635943</v>
+        <v>796.2072550895592</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99981415304291</v>
+        <v>391.8681926790078</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99981415304291</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99981415304291</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1755420007979</v>
+        <v>456.6032729699382</v>
       </c>
       <c r="K11" t="n">
-        <v>944.683849976297</v>
+        <v>1172.111580945437</v>
       </c>
       <c r="L11" t="n">
-        <v>1874.308897595574</v>
+        <v>2101.736628564714</v>
       </c>
       <c r="M11" t="n">
-        <v>2878.594999014632</v>
+        <v>2690.48129883921</v>
       </c>
       <c r="N11" t="n">
-        <v>3854.846057501333</v>
+        <v>2690.48129883921</v>
       </c>
       <c r="O11" t="n">
-        <v>4699.990707652145</v>
+        <v>3535.625948990022</v>
       </c>
       <c r="P11" t="n">
-        <v>4699.990707652145</v>
+        <v>4243.90522814795</v>
       </c>
       <c r="Q11" t="n">
-        <v>4699.990707652145</v>
+        <v>4699.990707652133</v>
       </c>
       <c r="R11" t="n">
-        <v>4699.990707652145</v>
+        <v>4699.990707652133</v>
       </c>
       <c r="S11" t="n">
-        <v>4669.700227129288</v>
+        <v>4595.623413525273</v>
       </c>
       <c r="T11" t="n">
-        <v>4448.77465617392</v>
+        <v>4374.697842569906</v>
       </c>
       <c r="U11" t="n">
-        <v>4190.419746770332</v>
+        <v>4116.342933166318</v>
       </c>
       <c r="V11" t="n">
-        <v>3832.930331896582</v>
+        <v>3758.853518292568</v>
       </c>
       <c r="W11" t="n">
-        <v>3436.538982196929</v>
+        <v>3362.462168592915</v>
       </c>
       <c r="X11" t="n">
-        <v>3024.818983364676</v>
+        <v>2950.742169760662</v>
       </c>
       <c r="Y11" t="n">
-        <v>2619.481713319567</v>
+        <v>2545.404899715553</v>
       </c>
     </row>
     <row r="12">
@@ -5096,55 +5096,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>661.1233051844981</v>
+        <v>661.1233051844979</v>
       </c>
       <c r="C12" t="n">
-        <v>543.6174017020029</v>
+        <v>543.6174017020027</v>
       </c>
       <c r="D12" t="n">
-        <v>439.777443217288</v>
+        <v>439.7774432172877</v>
       </c>
       <c r="E12" t="n">
-        <v>335.0755094902252</v>
+        <v>335.0755094902249</v>
       </c>
       <c r="F12" t="n">
-        <v>241.4296791731293</v>
+        <v>241.429679173129</v>
       </c>
       <c r="G12" t="n">
-        <v>147.3759073907333</v>
+        <v>147.3759073907331</v>
       </c>
       <c r="H12" t="n">
-        <v>93.99981415304291</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="I12" t="n">
-        <v>93.99981415304291</v>
+        <v>101.4464571149545</v>
       </c>
       <c r="J12" t="n">
-        <v>93.99981415304291</v>
+        <v>373.1439463945456</v>
       </c>
       <c r="K12" t="n">
-        <v>93.99981415304291</v>
+        <v>963.6288729628852</v>
       </c>
       <c r="L12" t="n">
-        <v>930.7986222359491</v>
+        <v>963.6288729628852</v>
       </c>
       <c r="M12" t="n">
-        <v>1902.687444733553</v>
+        <v>963.6288729628852</v>
       </c>
       <c r="N12" t="n">
-        <v>1902.687444733553</v>
+        <v>963.6288729628852</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.687444733553</v>
+        <v>963.6288729628852</v>
       </c>
       <c r="P12" t="n">
-        <v>1902.687444733553</v>
+        <v>1356.52265778607</v>
       </c>
       <c r="Q12" t="n">
-        <v>1902.687444733553</v>
+        <v>1820.668134648849</v>
       </c>
       <c r="R12" t="n">
-        <v>1902.687444733553</v>
+        <v>1902.687444733552</v>
       </c>
       <c r="S12" t="n">
         <v>1821.363197294807</v>
@@ -5162,10 +5162,10 @@
         <v>1093.220549484605</v>
       </c>
       <c r="X12" t="n">
-        <v>929.7432032512685</v>
+        <v>929.7432032512683</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.0503146045609</v>
+        <v>790.0503146045606</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1177.18093667728</v>
+        <v>429.2891501473559</v>
       </c>
       <c r="C13" t="n">
-        <v>1005.208373556196</v>
+        <v>257.316587026272</v>
       </c>
       <c r="D13" t="n">
-        <v>841.8916006829664</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="E13" t="n">
-        <v>675.68339483582</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="F13" t="n">
-        <v>503.8216206103804</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="G13" t="n">
-        <v>337.5646509046126</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="H13" t="n">
-        <v>193.7683824127669</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99981415304291</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="J13" t="n">
-        <v>151.4911423772009</v>
+        <v>151.4911423772007</v>
       </c>
       <c r="K13" t="n">
-        <v>378.0187435830381</v>
+        <v>378.0187435830379</v>
       </c>
       <c r="L13" t="n">
-        <v>732.7080648774589</v>
+        <v>732.7080648774586</v>
       </c>
       <c r="M13" t="n">
-        <v>1123.89385984771</v>
+        <v>1123.893859847709</v>
       </c>
       <c r="N13" t="n">
-        <v>1501.385370723746</v>
+        <v>1501.385370723745</v>
       </c>
       <c r="O13" t="n">
-        <v>1856.813499403509</v>
+        <v>1856.813499403508</v>
       </c>
       <c r="P13" t="n">
         <v>2147.412711325409</v>
@@ -5226,25 +5226,25 @@
         <v>2274.412841566171</v>
       </c>
       <c r="S13" t="n">
-        <v>2274.412841566171</v>
+        <v>2168.449451217128</v>
       </c>
       <c r="T13" t="n">
-        <v>2274.412841566171</v>
+        <v>1925.110103443028</v>
       </c>
       <c r="U13" t="n">
-        <v>2274.412841566171</v>
+        <v>1644.925654943333</v>
       </c>
       <c r="V13" t="n">
-        <v>2111.105974081285</v>
+        <v>1363.214187551361</v>
       </c>
       <c r="W13" t="n">
-        <v>1836.253570253798</v>
+        <v>1088.361783723874</v>
       </c>
       <c r="X13" t="n">
-        <v>1593.689673699603</v>
+        <v>845.7978871696796</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.346905389345</v>
+        <v>619.4551188594216</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5278,34 +5278,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L14" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M14" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N14" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
         <v>4789.842805209199</v>
@@ -5320,7 +5320,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5357,28 +5357,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M15" t="n">
-        <v>730.647150085061</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N15" t="n">
-        <v>730.647150085061</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O15" t="n">
-        <v>730.647150085061</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P15" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5463,25 +5463,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4798.855966881186</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>776.7012749360533</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>776.7012749360533</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>776.7012749360533</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>610.4930690889069</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1992.33777973203</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1710.626312340059</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1435.773908512572</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1193.210011958377</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>966.867243648119</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>188.2350251358961</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>903.7433331113951</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1833.368380730672</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2837.65448214973</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3813.905540636431</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4659.050190787243</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3899.499165495449</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>3727.526602374365</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3564.209829501136</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>3398.00162365399</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3226.13984942855</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291426</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>5115.135670291426</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>5115.135670291426</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4833.424202899455</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>4558.571799071968</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>4316.007902517773</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>4089.665134207515</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1191.617659878699</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1191.617659878699</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>603.8002552472883</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>431.8276921262043</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>268.510919252975</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6147,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2099.621208542961</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1819.436760043265</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1537.725292651294</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.872888823807</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1020.308992269612</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>793.966223959354</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6317,16 +6317,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1869.241345563992</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1587.529878172021</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.529878172021</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6545,25 +6545,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>1529.586448057074</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>456.2068044646694</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1171.715112440168</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>2101.340160059445</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>3105.626261478503</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478503</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3313.89468267283</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>3585.592171952421</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>4176.07709852076</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>4176.07709852076</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>4176.07709852076</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N33" t="n">
-        <v>4176.07709852076</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
-        <v>4398.937953252928</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6858,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2176.752350469914</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1933.413002695814</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1653.228554196118</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1371.517086804147</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1096.66468297666</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>854.1007864224655</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>627.7580181122075</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7019,22 +7019,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>1446.844867123559</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>985.454412532011</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>985.454412532011</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.454412532011</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,55 +7162,55 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291425</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
         <v>3777.607131232208</v>
@@ -7265,10 +7265,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1726.151869599499</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1483.587973045304</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,7 +7411,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7423,22 +7423,22 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O41" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P41" t="n">
-        <v>4935.721337874071</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
         <v>4789.842805209199</v>
@@ -7453,7 +7453,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7490,28 +7490,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>964.4851292537592</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>964.4851292537592</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M42" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,49 +7636,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L44" t="n">
-        <v>1125.089101572744</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M44" t="n">
-        <v>2129.375202991802</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478503</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629315</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787243</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7736,16 +7736,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O45" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P45" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q45" t="n">
         <v>1910.990343986338</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>496.5168264363576</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>324.5442633152736</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
         <v>274.1644876312681</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1712.153331232334</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1430.441863840363</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1155.589460012876</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>913.0255634586812</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>686.6827951484232</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>84.50867025038121</v>
       </c>
       <c r="L2" t="n">
-        <v>453.3222319052608</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489274</v>
+        <v>372.0892523034619</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298236</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>98.52275580777507</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>452.4414523720698</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500401</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>179.6167914733354</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204227</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104033</v>
+        <v>298.7878524343791</v>
       </c>
       <c r="L8" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>452.289812307084</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3705437721217</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8549,13 +8549,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204227</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>165.9610987257431</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,19 +8698,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>632.1228490352863</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8944,10 +8944,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9005,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>657.7881306933709</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>896.3899752251272</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,22 +9169,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>236.8553498857477</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.2202743644426</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9728,19 +9728,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>279.576101048122</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,10 +10193,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10205,16 +10205,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P30" t="n">
-        <v>407.0273017394389</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>386.8988393430016</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N32" t="n">
         <v>37.27962283444602</v>
@@ -10372,7 +10372,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,25 +10424,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>248.2838641991599</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,13 +10667,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>784.1890535317962</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10685,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286654</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10913,13 +10913,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O39" t="n">
-        <v>749.810964578424</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11071,16 +11071,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735962</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>217.3512730059673</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11138,16 +11138,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,13 +11156,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>426.1551116948253</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>348.6939416158719</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
         <v>1051.861668373228</v>
@@ -11314,7 +11314,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>480.8452212937382</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11384,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.2028680054599</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>236.2122059901204</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22606,13 +22606,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22710,7 +22710,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -22725,7 +22725,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.6172179931334512</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>208.8690503173296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>345.6033748060275</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -22846,7 +22846,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>99.70315383350896</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,16 +22992,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23029,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>192.7837107134364</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -23089,7 +23089,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>342.6064085940736</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23184,10 +23184,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>228.0760643491786</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>368.2257402086789</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>73.33604546796232</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>63.52994056050434</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>72.75829274970177</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>18.44967133088784</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,13 +24177,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24414,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24651,22 +24651,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>155.6854428440909</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>63.52994056050434</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>27.77629167420068</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>111.8076272173316</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457717.0243933312</v>
+        <v>457717.0243933313</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457717.0243933312</v>
+        <v>457717.0243933313</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>715957.147037478</v>
+        <v>715957.1470374771</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>759271.7508746497</v>
+        <v>759271.7508746496</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>759271.7508746497</v>
+        <v>759271.7508746496</v>
       </c>
     </row>
     <row r="13">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152470.9723568844</v>
+        <v>152470.9723568845</v>
       </c>
       <c r="C2" t="n">
         <v>152470.9723568845</v>
       </c>
       <c r="D2" t="n">
-        <v>152470.9723568844</v>
+        <v>152470.9723568846</v>
       </c>
       <c r="E2" t="n">
-        <v>238486.3295284521</v>
+        <v>238486.3295284517</v>
       </c>
       <c r="F2" t="n">
         <v>252913.6814118513</v>
       </c>
       <c r="G2" t="n">
-        <v>252913.6814118514</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="H2" t="n">
         <v>252913.6814118513</v>
@@ -26355,7 +26355,7 @@
         <v>252913.6814118513</v>
       </c>
       <c r="P2" t="n">
-        <v>252913.6814118514</v>
+        <v>252913.6814118513</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>184751.0683929127</v>
+        <v>184751.0683929118</v>
       </c>
       <c r="F3" t="n">
-        <v>29737.45639129569</v>
+        <v>29737.4563912966</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>154199.9251377778</v>
+        <v>154199.925137777</v>
       </c>
       <c r="N3" t="n">
-        <v>25420.05256608782</v>
+        <v>25420.0525660886</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>17703.77972371005</v>
       </c>
       <c r="D4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="E4" t="n">
-        <v>27747.63215222807</v>
+        <v>27747.63215222802</v>
       </c>
       <c r="F4" t="n">
         <v>29432.2870559115</v>
@@ -26450,7 +26450,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="M4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="N4" t="n">
         <v>29432.2870559115</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>71439.85875631261</v>
+        <v>71439.85875631242</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-119083.7918189909</v>
+        <v>-119692.8375314805</v>
       </c>
       <c r="C6" t="n">
-        <v>67320.94159574636</v>
+        <v>66711.89588325669</v>
       </c>
       <c r="D6" t="n">
-        <v>67320.94159574631</v>
+        <v>66711.89588325674</v>
       </c>
       <c r="E6" t="n">
-        <v>-45452.22977300131</v>
+        <v>-45583.41239009259</v>
       </c>
       <c r="F6" t="n">
-        <v>115993.8757762145</v>
+        <v>115942.8451140292</v>
       </c>
       <c r="G6" t="n">
-        <v>145731.3321675102</v>
+        <v>145680.3015053258</v>
       </c>
       <c r="H6" t="n">
-        <v>145731.3321675101</v>
+        <v>145680.3015053258</v>
       </c>
       <c r="I6" t="n">
-        <v>145731.3321675102</v>
+        <v>145680.3015053258</v>
       </c>
       <c r="J6" t="n">
-        <v>197.6622326936631</v>
+        <v>146.6315705093589</v>
       </c>
       <c r="K6" t="n">
-        <v>145731.3321675101</v>
+        <v>145680.3015053259</v>
       </c>
       <c r="L6" t="n">
-        <v>145731.3321675102</v>
+        <v>145680.3015053259</v>
       </c>
       <c r="M6" t="n">
-        <v>-8468.592970267637</v>
+        <v>-8519.623632451228</v>
       </c>
       <c r="N6" t="n">
-        <v>120311.2796014223</v>
+        <v>120260.2489392373</v>
       </c>
       <c r="O6" t="n">
-        <v>145731.3321675101</v>
+        <v>145680.3015053258</v>
       </c>
       <c r="P6" t="n">
-        <v>145731.3321675102</v>
+        <v>145680.3015053259</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1174.997676913036</v>
+        <v>1174.997676913033</v>
       </c>
       <c r="F4" t="n">
         <v>1278.783917572857</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>618.7698637974422</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="F4" t="n">
-        <v>103.7862406598204</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>618.7698637974422</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="N4" t="n">
-        <v>103.7862406598204</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>618.7698637974422</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="N4" t="n">
-        <v>103.7862406598204</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="L2" t="n">
-        <v>415.0101894726378</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.227813115594</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="L3" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>75.42597529544709</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.227813115594</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.227813115594</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="L8" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,19 +35248,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.227813115594</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>136.5411392401566</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,19 +35418,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>594.6915861358545</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>981.7058813107107</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35664,10 +35664,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>873.218085502905</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,22 +35889,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>200.7306752811496</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>86.80031487885611</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>257.8052598432934</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P30" t="n">
-        <v>385.2564605346102</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>357.4788798574151</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>225.1119744769376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>761.6739668175666</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.492718418434</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O39" t="n">
-        <v>726.6390748562018</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37791,16 +37791,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>181.2265984013693</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>310.381899183249</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
         <v>1014.430405473796</v>
@@ -38034,7 +38034,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>443.2698594835069</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38104,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
